--- a/uploads/Indu_Parmar_extracted_data.xlsx
+++ b/uploads/Indu_Parmar_extracted_data.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+91-9650797257</t>
+          <t>+919650797257</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HR Business Partner, HR Process Transformation &amp; Operations, Talent Development, Workforce Planning and Management, Attrition Control, Exit Management, Grievance Mechanism, Benefits Planning &amp; Administration, Career Planning and Talent Reviews, Performance Management, Compensation Administration, Payroll Processing, Global Payroll, Workforce Administration, Compensation Administration, Automation, Feedback Survey, EPIC Assessment, Passion Drivers,  Employee Engagement &amp; Communication, Feedback Survey, Query Resolution, Training Needs Identification, Training Delivery, Training Effectiveness Measurement, Workforce Administration, Compensation Planning, Performance Management, Global Payroll, Payroll Inputs,  Compensation Audits, Compensation for Offshore/Onsite, Letter Release Process,  Offshore Delivery employees, Restructuring, Alignment Letters, OREC Letters,  Automation Solutions,  Workforce Administration, Employee Life Cycle applications, Compensation Administration, Team Management,  Team Members,  Objective Goals, Performance Evaluation,  Development Opportunities,  Feedback,  Query Resolution,   Performance Management and Compensation Administration,  Annual, Anniversary Appraisals,   Headcount, Attrition,  Cost Walk through,   Strategic Initiatives, Retention,  Career Planning, Talent Development,   Attrition Rate,  Attritions Reversals,  Employee Life Cycle Applications,  Time Attendance/Shift tracking/Leave, Exit/Exit Interviews and Query Resolution,   Smart Service Desk,  Career, Performance, Rewards, Talent,  Compensation Finalization,  Salary Fitment Letters,  Compensation Administration,   Global Payroll,  Compensation,   Deductions,   Audits,  Payroll Inputs,   Offshore/Onsite,  Compensation,   Confirmation,  Batch,  First Time Returnees, Intra Company Transfer,  Restructuring,  Alignment Letters, OREC Letters,  Workforce Administration, Employee Life Cycle applications,  Compensation Administration,  Team Management,  Team Members,  Objective Goals,  Performance Evaluation,   Development Opportunities,  Feedback</t>
+          <t>Human Resources, HR Process Transformation, Operations, Talent Development, Workforce Planning, Compensation Administration, Performance Management, Employee Engagement, Training Delivery, Career Planning, Strategic Initiatives, Workforce Analytics, MIS Reporting, Reporting Process, Feedback Survey, Employee Passion, EPIC Assessment, Workflow Management, Automation, Team Management, Global Payroll, Compensation, Compensation Audits, Communication, Query Resolution, Problem Solving, Team Building, Training,  Project Management,  Problem Solving</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[{'degree': 'Certification in Management Consulting', 'university': 'CDC, Govt of India', 'tier': 'Tier 2', 'year': '2011'}, {'degree': 'AHBAP certification for business analysis', 'university': 'HCL', 'tier': 'Tier 1', 'year': '2011'}, {'degree': 'Master in Computer Application', 'university': 'GGSIP University, New Delhi', 'tier': 'Tier 2', 'year': '2005-2008'}, {'degree': 'Bachelor in Computer Application', 'university': 'GGSIP University, New Delhi', 'tier': 'Tier 2', 'year': '2002-2005'}]</t>
+          <t>[{'degree': 'Certification in Management Consulting', 'institution': 'CDC Govt of India', 'tier': 'Government', 'years': '2011'}, {'degree': 'AHBAP certification for business analysis', 'institution': 'HCL', 'tier': 'Corporate', 'years': '2011'}, {'degree': 'Master in Computer Application', 'institution': 'GGSIP University New Delhi', 'tier': 'Tier 2', 'years': '2005-2008'}, {'degree': 'Bachelor in Computer Application', 'institution': 'GGSIP University New Delhi', 'tier': 'Tier 2', 'years': '2002-2005'}]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'title': 'HR Business Partner', 'company': 'HCL Technologies', 'years': '6+', 'description': 'Responsible for leading and driving implementation of the HR processes &amp; policies for the assigned business line and contribute to achievement of delivery goals in compliance with the policies of HCL Technologies'}, {'title': 'Sr. Specialist – HR Process Transformation &amp; Operations', 'company': 'HCL Technologies', 'years': '6+', 'description': 'Responsible for providing operational support to the Centers of Excellence in design &amp; governance of key HR Processes'}, {'title': 'Specialist - HR Feedback Survey', 'company': 'HCL Technologies', 'years': '6+', 'description': 'Responsible for co-creating, managing and driving the assessment for identifying employee passion drivers with Employee Passion Indicative Count (EPIC) assessment'}]</t>
+          <t>[{'title': 'HR Business Partner', 'company': 'HCL Technologies', 'years': '6+ years', 'description': 'Responsible for leading and driving implementation of the HR processes &amp; policies for the assigned business line and contribute to achievement of delivery goals in compliance with the policies of HCL Technologies, Responsible for workforce planning and requisition management for demand &amp; fulfillment, Responsible for on-boarding specific to business line, Support in analysis of new joiner survey outcomes and take corrective actions, Supports for Training needs identification, training delivery and its effectiveness measurement, Responsible for workforce administration (deployment, rotations) and mobility of expats, Responsible for compensation planning &amp; administration, and performance management, Responsible for employee engagement &amp; communication, feedback survey execution, workforce administration (attrition control, exit management, grievance mechanism, query resolution), benefits – planning &amp; administration, Supports for Career &amp; Talent management by career planning and talent reviews, Identify special initiatives across all areas of Employee Life Cycle specific to Business Line / Account Requirements, Supporting the business line with piloting new initiatives and incubating the same, Responsible for driving MIS Requirements and establish Reporting Process for improved Business Conduct, Responsible for end to end performance management and compensation administration for ~2600 employees including annual, anniversary appraisals, Single handedly managed the workforce analytics for business unit of ~5800 employees with Net Impact reporting on Headcount, Attrition, and Cost Walk through, Conceptualized and developed business unit specific dashboards and review decks for CHRO, Conceptualizing and implementation of Strategic initiatives related to Retention, Career Planning, Talent Development for ~5800 employees, Sub-business unit of 600+ handled with ~11.5% attrition rate with 25% attritions reversals achieved'}, {'title': 'Sr. Specialist - HR Process Transformation &amp; Operations', 'company': 'HCL Technologies', 'years': '6+ years', 'description': 'Responsible for providing operational support to the Centers of Excellence in design &amp; governance of key HR Processes, Accountable/Responsible for Workflow Management of Employee Life Cycle Applications for Time Attendance/Shift tracking/Leave, Exit/Exit Interviews and Query resolution through internal tool called "Smart Service Desk" pertaining to Program First covering aspects of Career, Performance, Rewards, Talent for overall organization with team of 6 members, Responsible for Compensation finalization towards Mobility of Expats to America region supported by one team member by creating Salary fitment letters and supporting Business Partners for exception handling, Accountable for Global Payroll processing supported by 2 team members. Responsible for audits of payroll inputs for additional payments and deductions over and above compensation for Offshore/Onsite, Facilitation of Letter release process for Offshore Delivery employees - Annual, Interim, Confirmation, Batch, First Time Returnees, Intra Company Transfer, Restructuring, Alignment Letters and OREC Letters, Responsible for providing automation solutions for areas in workforce administration for Employee Life Cycle applications, and compensation administration, Responsible for setting objective goals and evaluating performance of team members on a periodic basis. Provide regular feedback and opportunities for development to team members, Automations implemented which saved ~125 days efforts with projected cost savings of ~81 K USD, ~95% query resolution within SLA with ~2% escalation rates with ~98% first time resolution provided, Payroll audits of ~37 K inputs worth INR 34 crores for Offshore India based payouts and ~14 K inputs worth 17 Million USD for Onsite based payouts with overall accuracy of 99.6%, Mentoring of 8 team members primarily with 0-2 years experience'}, {'title': 'Specialist - HR Feedback Survey', 'company': 'HCL Technologies', 'years': '6+ years', 'description': 'Responsible for co-creating, managing and driving the assessment for identifying employee passion drivers with Employee Passion Indicative Count (EPIC) assessment, Co-designed and conducted EPIC assessment survey to identify passion drivers across the organization, Creating awareness and increasing participation of employees in the survey by conducting meetings, floor walks for educating and popularizing program, Identifying Role models for effective execution across business lines by providing support and recognizing them for their efforts; and Review overall plan and execution of program region wise, Collate data, analyze with management dashboard and recommend action plan through post interventions such as facilitating &amp; coordinating EPIC Workshops on "Creating a Passionate Team" and Post EPIC Effectiveness Tracker as part of its development interventions, Participation of ~51 K employees in assessment survey through focused communication for ~81 K and individually covering 3 K+ employees through floor walks across NCR office locations, Managing EPIC post interventions i.e. facilitating EPIC Workshops on "Creating a Passionate Team" covering 1172 Managers in Middle management/Top management, Successfully conceptualizing, designing and executing Most Passionate HCL Manager on MEME (internal social network platform) having 1457 members'}]</t>
         </is>
       </c>
     </row>
